--- a/structure.xlsx
+++ b/structure.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\RWD20200428\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\網頁練習\HexSchool\Hex__layout-class__work3\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1241" uniqueCount="759">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1358" uniqueCount="869">
   <si>
     <t>header</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1586,10 +1586,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>span.arrow-icon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>li.joint__list__item</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2061,11 +2057,1163 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>mb60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>df</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fdrc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mb32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgimg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>w792</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>h320</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mr24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fsi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fz48</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lh57px</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fw900</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>color#AA0601</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgimg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgrn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgp0c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pl56</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgimg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>經典系列鏡框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>optical</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sunglasses</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>functional</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>:nth2 a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fdrr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>:nth2 .classic__list__item__img</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mr0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ml24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ttu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>../pic/8.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>../pic/15_2.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>../pic/28.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>../pic/iconfinder_44_2529968.svg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>../pic/Layer_1.svg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>../pic/Page-1.svg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>../pic/15.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgzc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>color#FFFFFF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mb56</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mxw1547</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>li.joint__imgstream__item</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$joint__imgstream__img2-width</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$joint__imgstream__img3-width</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$joint__imgstream__img4-width</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgp0c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgc#FFFFFF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fz72</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>w315</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>h105</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ml17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>h167</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jcfe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>w342</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MORE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>poa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>l59</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>por</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t59</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>opa.7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>opa.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ml27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>trans transfromY 1.5s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>trans transformY 1.5s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>transformY-150%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>transformY-250%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m0-a-60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>df</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jcsb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p64-0-479</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgimg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgrn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgc rgba 255 255 255 0.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>h585</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>w592</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>聯名設計鏡框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>../pic/zac-wolff-2qfYizn95pk-unsplash.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>../pic/61.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>../pic/24.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>../pic/34.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MORE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Double A+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YOUTH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>../pic/nick-owuor-astro-nic-visuals-54Q_HvMWtVE-unsplash.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$joint__imgstream__img1-width</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>../pic/5.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>../pic/14.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>../pic/39.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>content''</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clearboth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.clearfix:after</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgzc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jcc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>li.joint__imgstream__link:hover a .linkbox .arrow-icon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>w($+8)/1547*100%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>w100%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ul.joint__imgstream.clearfix</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>li.joint__imgstream__link</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mt-335</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mb80</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>color: #FFFFFF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mb60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>w282</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>w100%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>border #DEE2E6 solid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>border width 0 1 1 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fz16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lh21px</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>color: #212529</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fw500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mb16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fz16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lh24px</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>color: #212529</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fw400</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>color: #707070</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>顧客推薦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jessy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>This is a wider card with supporting text below as a natural lead-in to additional content.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Last updated 3 mins ago</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Karen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Last updated 3 mins ago</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>../pic/36.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chelsea</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Last updated 3 mins ago</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>../pic/45.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jane</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>This is a wider card with supporting text below as a natural lead-in to additional content.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Last updated 3 mins ago</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgc#AA06010D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mxw792</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>color:#000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mb24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fz20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lh30px</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>color:#000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mb20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lh22px</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fz16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fw400</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mb4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>db</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>w100%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mb16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p14-16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>border 1 solid #000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>db</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rzv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>h136</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mb42</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>df</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>label.contact__form__checkbox</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>span.checkbox__box</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>span.checkbox__text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>h24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pl2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>w16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>h16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>border 2 soild #000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>borderradius 2px</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mr8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>span.checkbox__box:after</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>por</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>poa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t50%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>l50%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>translate-50%-50%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>w8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>border solid black</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>h10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>border w 0 4 4 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rotate45deg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>label.contact__form__checkbox:checked</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>w180</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>h54</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fz16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fw700</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>colorFFFFFF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lh100%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>聯絡我們</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我們相當重視您的意見，若您有任何疑問，可先參考「常見問題」，若仍有任何問題，請填妥以下資料，我們會在近期與您聯繫。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陳小明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>聯絡電話</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>電子郵件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>意見反應</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我同意隱私權政策，並同意依隱私權政策中所述的方式處理自己的資料。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0912-345-678</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>example@email.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>請輸入您的意見</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>確認送出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>curp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgc#AA0601</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m0-a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pt64-0-92</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m0-a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>:hover</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgc#650300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgc#AA0601</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pt36</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mxw1150</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m0-auto</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jcsb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mb18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mr48</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fw400</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lh48px</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>df</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ml32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pb8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>border 1 solid #FFFFFF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fz36</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pl60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>h100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jcsb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mr38</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>df</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ml62</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fz14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>../pic/ic_social_fb.svg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>../pic/ic_social_ig.svg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>../pic/ic_social_line.svg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0800-000-000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>glasses@business.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>隱私權政策</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服務條款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Copyright © 2020 Glasses.All rights reserved.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>../pic/ic_phone_48px.svg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>h48</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>../pic/ic_mail_outline_24px.svg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rwd768</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mxw768-48*2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ml40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mxw672</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fz32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lh45px</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fz20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lh28px</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fz48</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lh67px</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pt40-0-36</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mb12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mb12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>w324</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>h256</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p20-50-8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>h80</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>w80</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m0-a-16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lh28px</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mb8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>li:nth1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>li:nth2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>li:nth3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>li:nth4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>order3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>order1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>order2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>order4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgzcn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>p64-0-48</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>mb60</t>
+    <t>p40-0-32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mb32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mb8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>w410.85</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>h168</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mxw672</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m0-a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>div</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>div</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>w214</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p0-12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgzcn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fz28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lh33px</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgzcn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pl40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fdr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mr0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ml0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2073,7 +3221,103 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>fdrc</t>
+    <t>jcc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jcsb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p40-0-417</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mb30.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mxw675</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m0-a-40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p1.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>h77</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>w194</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p28-19-28-32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p3-10.86-3-19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>w178</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>h59</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fz40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ml10.04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fz32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>img.arrow-icon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>trans m .5s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>h27.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>w322</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>h280</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mt-367</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mb16</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2081,103 +3325,115 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>fww</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mb24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>bgimg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>w792</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>h320</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mr24</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fsi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fz48</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lh57px</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fw900</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>color#AA0601</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgimg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>bgrn</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>bgp0c</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pl56</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>a</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>a</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>a</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgimg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>經典系列鏡框</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>optical</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sunglasses</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>functional</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>:nth2 a</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fdrr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>:nth2 .classic__list__item__img</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mr0</t>
+    <t>bgpcc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>w282</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.feedback__list__item__img</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>../pic/18.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgzcv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>../pic/25.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgc#FFFFFF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mxw498</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p40-0-56</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mb16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fz16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lh24px</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mb16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgc transparent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lh24px</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mb24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>w136</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>h36</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ai initial</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pt40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mb24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mr40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>h24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lh24px</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2185,207 +3441,43 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ttu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>../pic/8.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>../pic/15_2.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>../pic/28.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>../pic/iconfinder_44_2529968.svg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>../pic/Layer_1.svg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>../pic/Page-1.svg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>../pic/15.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>aic</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgzc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>color#FFFFFF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mb56</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mxw1547</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fl</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>li.joint__imgstream__item</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>p4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>$joint__imgstream__img2-width</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>$joint__imgstream__img3-width</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>$joint__imgstream__img4-width</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgp0c</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgc#FFFFFF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fz72</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>w315</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>h105</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ml17</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>m4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>h167</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jcfe</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>w342</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>db</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>content''</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MORE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>poa</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>l59</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>por</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>p28-19-28-32</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>t59</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>opa.7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>opa.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ml27</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>trans ml 1.5s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>trans transfromY 1.5s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>trans transformY 1.5s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>transformY-150%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>transformY-250%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>m0-a-60</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>df</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jcsb</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>p64-0-479</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgimg</t>
+    <t>pb16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mb11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lh26px</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pl35</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgz auto 26px</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>h85</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ml24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>h24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mt5px</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2393,659 +3485,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>bgc rgba 255 255 255 0.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>h585</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>w592</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>聯名設計鏡框</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>../pic/zac-wolff-2qfYizn95pk-unsplash.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>../pic/61.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>../pic/24.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>../pic/34.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MORE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Double A+</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>YOUTH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>../pic/nick-owuor-astro-nic-visuals-54Q_HvMWtVE-unsplash.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>$joint__imgstream__img1-width</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>../pic/5.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>../pic/ic_a.svgow_forward_24px.svg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>../pic/14.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>../pic/39.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>content''</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>clearboth</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>.clearfix:after</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgzc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jcc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>li.joint__imgstream__link:hover a .linkbox .arrow-icon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>w($+8)/1547*100%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>w100%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ul.joint__imgstream.clearfix</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>li.joint__imgstream__link</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mt-335</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mb80</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>color: #FFFFFF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mb60</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>w282</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>w100%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>p16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>border #DEE2E6 solid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>border width 0 1 1 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fz16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lh21px</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>color: #212529</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fw500</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mb16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fz16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lh24px</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>color: #212529</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fw400</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>color: #707070</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>顧客推薦</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>../pic/18.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jessy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>This is a wider card with supporting text below as a natural lead-in to additional content.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Last updated 3 mins ago</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>../pic/25.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Karen</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Last updated 3 mins ago</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>../pic/36.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Chelsea</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Last updated 3 mins ago</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>../pic/45.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jane</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>This is a wider card with supporting text below as a natural lead-in to additional content.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Last updated 3 mins ago</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgc#AA06010D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mxw792</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>color:#000000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mb24</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fz20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lh30px</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>color:#000000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mb20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lh22px</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fz16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fw400</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mb4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>db</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>w100%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mb16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>p14-16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>border 1 solid #000000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>db</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rzv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>h136</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mb42</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>df</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>label.contact__form__checkbox</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>span.checkbox__box</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>span.checkbox__text</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>h24</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pl2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>w16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>h16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>border 2 soild #000000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>borderradius 2px</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mr8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>span.checkbox__box:after</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>por</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>poa</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>t50%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>l50%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>translate-50%-50%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>w8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>border solid black</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>h10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>border w 0 4 4 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rotate45deg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>label.contact__form__checkbox:checked</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>w180</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>h54</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fz16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fw700</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>colorFFFFFF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lh100%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>聯絡我們</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我們相當重視您的意見，若您有任何疑問，可先參考「常見問題」，若仍有任何問題，請填妥以下資料，我們會在近期與您聯繫。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>姓名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>陳小明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>聯絡電話</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>電子郵件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>意見反應</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我同意隱私權政策，並同意依隱私權政策中所述的方式處理自己的資料。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0912-345-678</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>example@email.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>請輸入您的意見</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>確認送出</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>curp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgc#AA0601</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>m0-a</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pt64-0-92</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>m0-a</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>:hover</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgc#650300</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgc#AA0601</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pt36</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mxw1150</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>m0-auto</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jcsb</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mb18</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mr48</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fw400</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lh48px</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>df</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ml32</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pb8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>border 1 solid #FFFFFF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fz36</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pl60</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>h100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jcsb</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mr38</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>df</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ml62</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fz14</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>../pic/ic_social_fb.svg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>../pic/ic_social_ig.svg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>../pic/ic_social_line.svg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0800-000-000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>glasses@business.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>隱私權政策</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>服務條款</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Copyright © 2020 Glasses.All rights reserved.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>../pic/ic_phone_48px.svg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>h48</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>../pic/ic_mail_outline_24px.svg</t>
+    <t>bgpcc</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3053,7 +3493,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3108,6 +3548,21 @@
       <family val="2"/>
       <charset val="136"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -3134,7 +3589,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3164,6 +3619,12 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -7551,10 +8012,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O482"/>
+  <dimension ref="A1:O493"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A450" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D479" sqref="D479"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -7562,147 +8023,166 @@
     <col min="1" max="16384" width="8.88671875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>344</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>317</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="10" t="s">
+        <v>750</v>
+      </c>
+      <c r="F1" s="8" t="s">
         <v>368</v>
       </c>
-      <c r="E1" s="8" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G1" s="10"/>
+      <c r="I1" s="8" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
+        <v>428</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>434</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>429</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>435</v>
-      </c>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="11" t="s">
+        <v>753</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>432</v>
+      </c>
+      <c r="G2" s="11"/>
+      <c r="I2" s="6" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C3" s="6" t="s">
         <v>430</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>433</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C3" s="6" t="s">
+      <c r="F3" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>754</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F4" s="6" t="s">
         <v>431</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>314</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D4" s="6" t="s">
-        <v>432</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D5" s="6" t="s">
+      <c r="G4" s="11" t="s">
+        <v>755</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F5" s="6" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G5" s="11"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="7" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="6" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B13" s="6" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B14" s="6" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B14" s="6" t="s">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B15" s="6" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B15" s="6" t="s">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B16" s="6" t="s">
         <v>441</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B16" s="6" t="s">
-        <v>442</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B17" s="6" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B18" s="6" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C19" s="8" t="s">
         <v>364</v>
       </c>
+      <c r="F19" s="10"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C20" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>751</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C21" s="6" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C22" s="6" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C23" s="6" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C24" s="6" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.3">
@@ -7717,17 +8197,17 @@
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.3">
       <c r="E27" s="6" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.3">
       <c r="E28" s="6" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.3">
       <c r="E29" s="6" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.3">
@@ -7735,7 +8215,7 @@
         <v>344</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.3">
@@ -7745,113 +8225,117 @@
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.3">
       <c r="D32" s="6" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
       <c r="E33" s="8" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="H33" s="10"/>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
       <c r="E34" s="6" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
+        <v>451</v>
+      </c>
+      <c r="H34" s="11" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
       <c r="F35" s="8" t="s">
         <v>361</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
       <c r="F36" s="6" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
       <c r="F37" s="6" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
       <c r="F38" s="6" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
       <c r="F39" s="6" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
       <c r="E40" s="8" t="s">
         <v>360</v>
       </c>
       <c r="F40" s="8"/>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
       <c r="E41" s="8"/>
       <c r="F41" s="8" t="s">
         <v>361</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.3">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
       <c r="E42" s="8" t="s">
         <v>360</v>
       </c>
       <c r="F42" s="8"/>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
       <c r="E43" s="8"/>
       <c r="F43" s="8" t="s">
         <v>361</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.3">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
       <c r="E44" s="8" t="s">
         <v>360</v>
       </c>
       <c r="F44" s="8"/>
     </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
       <c r="E45" s="8"/>
       <c r="F45" s="8" t="s">
         <v>361</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.3">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B46" s="8" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B47" s="6" t="s">
+        <v>462</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B48" s="6" t="s">
         <v>463</v>
-      </c>
-      <c r="C47" s="6" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B48" s="6" t="s">
-        <v>464</v>
       </c>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B49" s="6" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.3">
@@ -7861,252 +8345,340 @@
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C51" s="6" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="52" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C52" s="6" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="53" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C53" s="6" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C54" s="6" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="55" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C55" s="6" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="56" spans="2:7" x14ac:dyDescent="0.3">
       <c r="D56" s="8" t="s">
         <v>365</v>
       </c>
+      <c r="F56" s="10"/>
       <c r="G56" s="6" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="57" spans="2:7" x14ac:dyDescent="0.3">
       <c r="D57" s="6" t="s">
-        <v>479</v>
-      </c>
+        <v>478</v>
+      </c>
+      <c r="F57" s="11"/>
     </row>
     <row r="58" spans="2:7" x14ac:dyDescent="0.3">
       <c r="D58" s="6" t="s">
-        <v>470</v>
+        <v>469</v>
+      </c>
+      <c r="F58" s="11" t="s">
+        <v>756</v>
       </c>
     </row>
     <row r="59" spans="2:7" x14ac:dyDescent="0.3">
       <c r="D59" s="6" t="s">
-        <v>471</v>
+        <v>470</v>
+      </c>
+      <c r="F59" s="11" t="s">
+        <v>757</v>
       </c>
     </row>
     <row r="60" spans="2:7" x14ac:dyDescent="0.3">
       <c r="D60" s="6" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="61" spans="2:7" x14ac:dyDescent="0.3">
       <c r="D61" s="6" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="62" spans="2:7" x14ac:dyDescent="0.3">
       <c r="D62" s="8" t="s">
         <v>95</v>
       </c>
+      <c r="F62" s="10"/>
       <c r="G62" s="6" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="63" spans="2:7" x14ac:dyDescent="0.3">
       <c r="D63" s="6" t="s">
-        <v>480</v>
-      </c>
+        <v>479</v>
+      </c>
+      <c r="F63" s="11"/>
     </row>
     <row r="64" spans="2:7" x14ac:dyDescent="0.3">
       <c r="D64" s="6" t="s">
+        <v>473</v>
+      </c>
+      <c r="F64" s="11" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="65" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="D65" s="6" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="65" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="D65" s="6" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="66" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F65" s="11" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="66" spans="2:8" x14ac:dyDescent="0.3">
       <c r="D66" s="6" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="67" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="D67" s="6" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="67" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="D67" s="6" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="68" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B68" s="8" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="69" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B69" s="6" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="70" spans="2:7" x14ac:dyDescent="0.3">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="70" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C70" s="8" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="71" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F70" s="10"/>
+    </row>
+    <row r="71" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C71" s="6" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="72" spans="2:7" x14ac:dyDescent="0.3">
+        <v>482</v>
+      </c>
+      <c r="F71" s="11" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="72" spans="2:8" x14ac:dyDescent="0.3">
       <c r="D72" s="8" t="s">
         <v>371</v>
       </c>
+      <c r="F72" s="10"/>
       <c r="G72" s="6" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="73" spans="2:7" x14ac:dyDescent="0.3">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="73" spans="2:8" x14ac:dyDescent="0.3">
       <c r="D73" s="6" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="74" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="D74" s="6" t="s">
         <v>484</v>
       </c>
-    </row>
-    <row r="74" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="D74" s="6" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="75" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F74" s="11" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="75" spans="2:8" x14ac:dyDescent="0.3">
       <c r="D75" s="8" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="76" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:8" x14ac:dyDescent="0.3">
       <c r="D76" s="6" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="77" spans="2:7" x14ac:dyDescent="0.3">
+        <v>467</v>
+      </c>
+      <c r="F76" s="11"/>
+      <c r="G76" s="11"/>
+    </row>
+    <row r="77" spans="2:8" x14ac:dyDescent="0.3">
       <c r="D77" s="6" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="78" spans="2:7" x14ac:dyDescent="0.3">
+        <v>485</v>
+      </c>
+      <c r="F77" s="11"/>
+    </row>
+    <row r="78" spans="2:8" x14ac:dyDescent="0.3">
       <c r="D78" s="6" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="79" spans="2:7" x14ac:dyDescent="0.3">
+        <v>497</v>
+      </c>
+      <c r="F78" s="11"/>
+    </row>
+    <row r="79" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B79" s="10" t="s">
+        <v>771</v>
+      </c>
       <c r="E79" s="8" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="80" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="G79" s="10"/>
+    </row>
+    <row r="80" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B80" s="11" t="s">
+        <v>775</v>
+      </c>
       <c r="E80" s="6" t="s">
+        <v>486</v>
+      </c>
+      <c r="G80" s="11" t="s">
+        <v>763</v>
+      </c>
+      <c r="H80" s="11" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B81" s="10" t="s">
+        <v>772</v>
+      </c>
+      <c r="E81" s="6" t="s">
         <v>487</v>
       </c>
-    </row>
-    <row r="81" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E81" s="6" t="s">
+      <c r="G81" s="11" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B82" s="11" t="s">
+        <v>776</v>
+      </c>
+      <c r="E82" s="6" t="s">
         <v>488</v>
       </c>
-    </row>
-    <row r="82" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E82" s="6" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="83" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="G82" s="11" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B83" s="10" t="s">
+        <v>773</v>
+      </c>
       <c r="F83" s="8" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B84" s="11" t="s">
+        <v>777</v>
+      </c>
+      <c r="F84" s="6" t="s">
+        <v>462</v>
+      </c>
+      <c r="G84" s="6" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="84" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="F84" s="6" t="s">
-        <v>463</v>
-      </c>
-      <c r="G84" s="6" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="85" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B85" s="10" t="s">
+        <v>774</v>
+      </c>
       <c r="F85" s="6" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B86" s="11" t="s">
+        <v>778</v>
+      </c>
+      <c r="F86" s="6" t="s">
         <v>501</v>
       </c>
-    </row>
-    <row r="86" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="F86" s="6" t="s">
+      <c r="G86" s="11" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="F87" s="6" t="s">
         <v>502</v>
       </c>
-    </row>
-    <row r="87" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="F87" s="6" t="s">
+      <c r="G87" s="11" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="F88" s="6" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="88" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="F88" s="6" t="s">
+      <c r="G88" s="11" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="F89" s="6" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="89" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="F89" s="6" t="s">
+    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="F90" s="6" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="90" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="F90" s="6" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="91" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="G90" s="11" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
       <c r="F91" s="8" t="s">
         <v>372</v>
       </c>
       <c r="I91" s="6" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="92" spans="5:9" x14ac:dyDescent="0.3">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
       <c r="F92" s="6" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="F93" s="6" t="s">
         <v>490</v>
       </c>
-    </row>
-    <row r="93" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="F93" s="6" t="s">
+      <c r="G93" s="11" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="F94" s="6" t="s">
         <v>491</v>
       </c>
-    </row>
-    <row r="94" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="F94" s="6" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="95" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="G94" s="11" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
       <c r="F95" s="6" t="s">
+        <v>471</v>
+      </c>
+      <c r="G95" s="11"/>
+    </row>
+    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="F96" s="6" t="s">
         <v>472</v>
       </c>
-    </row>
-    <row r="96" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="F96" s="6" t="s">
-        <v>473</v>
-      </c>
+      <c r="G96" s="11"/>
     </row>
     <row r="97" spans="5:15" x14ac:dyDescent="0.3">
       <c r="F97" s="6" t="s">
-        <v>493</v>
+        <v>492</v>
+      </c>
+      <c r="G97" s="11" t="s">
+        <v>770</v>
       </c>
     </row>
     <row r="98" spans="5:15" x14ac:dyDescent="0.3">
@@ -8119,27 +8691,27 @@
     </row>
     <row r="99" spans="5:15" x14ac:dyDescent="0.3">
       <c r="F99" s="6" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="100" spans="5:15" x14ac:dyDescent="0.3">
       <c r="F100" s="6" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="101" spans="5:15" x14ac:dyDescent="0.3">
       <c r="F101" s="6" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="102" spans="5:15" x14ac:dyDescent="0.3">
       <c r="F102" s="6" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="103" spans="5:15" x14ac:dyDescent="0.3">
       <c r="F103" s="6" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="104" spans="5:15" x14ac:dyDescent="0.3">
@@ -8151,7 +8723,7 @@
     <row r="105" spans="5:15" x14ac:dyDescent="0.3">
       <c r="E105" s="8"/>
       <c r="F105" s="8" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="G105" s="6" t="s">
         <v>348</v>
@@ -8187,7 +8759,7 @@
     <row r="109" spans="5:15" x14ac:dyDescent="0.3">
       <c r="E109" s="8"/>
       <c r="F109" s="8" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="G109" s="6" t="s">
         <v>349</v>
@@ -8220,10 +8792,10 @@
     <row r="113" spans="2:9" x14ac:dyDescent="0.3">
       <c r="E113" s="8"/>
       <c r="F113" s="8" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="G113" s="6" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="114" spans="2:9" x14ac:dyDescent="0.3">
@@ -8256,2179 +8828,2470 @@
     </row>
     <row r="118" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C118" s="6" t="s">
-        <v>512</v>
+        <v>780</v>
+      </c>
+      <c r="D118" s="11" t="s">
+        <v>781</v>
       </c>
     </row>
     <row r="119" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="D119" s="8" t="s">
+      <c r="D119" s="11" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="120" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="D120" s="11" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="121" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="D121" s="8" t="s">
         <v>376</v>
       </c>
-      <c r="F119" s="6" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="120" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="D120" s="6" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="121" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="D121" s="6" t="s">
-        <v>513</v>
+      <c r="F121" s="6" t="s">
+        <v>532</v>
       </c>
     </row>
     <row r="122" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="D122" s="8" t="s">
-        <v>377</v>
+      <c r="D122" s="6" t="s">
+        <v>483</v>
       </c>
     </row>
     <row r="123" spans="2:9" x14ac:dyDescent="0.3">
       <c r="D123" s="6" t="s">
+        <v>511</v>
+      </c>
+      <c r="E123" s="11" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="124" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="D124" s="8" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="125" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="D125" s="6" t="s">
+        <v>512</v>
+      </c>
+      <c r="E125" s="11"/>
+    </row>
+    <row r="126" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="D126" s="6" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="127" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="E127" s="8" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="128" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="E128" s="6" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="124" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="D124" s="6" t="s">
+      <c r="F128" s="11" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="129" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F129" s="8" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="130" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F130" s="6" t="s">
+        <v>467</v>
+      </c>
+      <c r="G130" s="11" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="131" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F131" s="6" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="132" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="G132" s="8" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="133" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="G133" s="6" t="s">
         <v>515</v>
       </c>
-    </row>
-    <row r="125" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="E125" s="8" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="126" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="E126" s="6" t="s">
+      <c r="H133" s="6" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="134" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="G134" s="6" t="s">
         <v>516</v>
       </c>
-    </row>
-    <row r="127" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="F127" s="8" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="128" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="F128" s="6" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="129" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F129" s="6" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="130" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="G130" s="8" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="131" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="G131" s="6" t="s">
+      <c r="H134" s="11" t="s">
+        <v>784</v>
+      </c>
+      <c r="I134" s="11" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="135" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="G135" s="6" t="s">
         <v>517</v>
       </c>
-      <c r="H131" s="6" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="132" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="G132" s="6" t="s">
+      <c r="H135" s="11" t="s">
+        <v>785</v>
+      </c>
+      <c r="I135" s="11" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="136" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="G136" s="6" t="s">
         <v>518</v>
       </c>
-    </row>
-    <row r="133" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="G133" s="6" t="s">
+      <c r="H136" s="11" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="137" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="G137" s="6" t="s">
+        <v>868</v>
+      </c>
+      <c r="H137" s="11"/>
+    </row>
+    <row r="138" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="G138" s="8" t="s">
+        <v>788</v>
+      </c>
+      <c r="H138" s="11"/>
+    </row>
+    <row r="139" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="G139" s="11" t="s">
+        <v>791</v>
+      </c>
+      <c r="H139" s="8" t="s">
+        <v>379</v>
+      </c>
+      <c r="I139" s="6" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="140" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="G140" s="11" t="s">
+        <v>792</v>
+      </c>
+      <c r="H140" s="6" t="s">
         <v>519</v>
       </c>
-    </row>
-    <row r="134" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="G134" s="6" t="s">
+      <c r="I140" s="11"/>
+    </row>
+    <row r="141" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="G141" s="11" t="s">
+        <v>801</v>
+      </c>
+      <c r="H141" s="6" t="s">
         <v>520</v>
       </c>
-    </row>
-    <row r="135" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="G135" s="8" t="s">
-        <v>379</v>
-      </c>
-      <c r="H135" s="6" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="136" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="G136" s="6" t="s">
+      <c r="I141" s="11" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="142" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="G142" s="11" t="s">
+        <v>802</v>
+      </c>
+      <c r="H142" s="6" t="s">
         <v>521</v>
       </c>
-    </row>
-    <row r="137" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="G137" s="6" t="s">
+      <c r="I142" s="11" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="143" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="H143" s="6" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="138" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="G138" s="6" t="s">
+    <row r="144" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="H144" s="6" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="139" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="G139" s="6" t="s">
+    <row r="145" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="H145" s="6" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="146" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="H146" s="6" t="s">
         <v>524</v>
       </c>
-    </row>
-    <row r="140" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="G140" s="6" t="s">
+      <c r="I146" s="6" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="147" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="H147" s="6" t="s">
         <v>525</v>
       </c>
-    </row>
-    <row r="141" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="G141" s="6" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="142" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="G142" s="6" t="s">
+      <c r="I147" s="11" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="148" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="H148" s="6" t="s">
         <v>526</v>
       </c>
-      <c r="H142" s="6" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="143" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="G143" s="6" t="s">
+      <c r="I148" s="11"/>
+    </row>
+    <row r="149" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="H149" s="6" t="s">
         <v>527</v>
       </c>
-    </row>
-    <row r="144" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="G144" s="6" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="145" spans="5:10" x14ac:dyDescent="0.3">
-      <c r="G145" s="6" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="146" spans="5:10" x14ac:dyDescent="0.3">
-      <c r="E146" s="8" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="147" spans="5:10" x14ac:dyDescent="0.3">
-      <c r="F147" s="8" t="s">
-        <v>531</v>
-      </c>
-      <c r="G147" s="8"/>
-    </row>
-    <row r="148" spans="5:10" x14ac:dyDescent="0.3">
-      <c r="F148" s="8"/>
-      <c r="G148" s="8" t="s">
-        <v>380</v>
-      </c>
-      <c r="J148" s="6" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="149" spans="5:10" x14ac:dyDescent="0.3">
-      <c r="F149" s="8"/>
-      <c r="G149" s="8" t="s">
-        <v>379</v>
-      </c>
-      <c r="H149" s="6" t="s">
-        <v>548</v>
-      </c>
-      <c r="J149" s="6" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="150" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="I149" s="11" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="150" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E150" s="8" t="s">
         <v>378</v>
       </c>
-      <c r="F150" s="8"/>
-      <c r="G150" s="8"/>
-    </row>
-    <row r="151" spans="5:10" x14ac:dyDescent="0.3">
-      <c r="E151" s="8"/>
+    </row>
+    <row r="151" spans="5:11" x14ac:dyDescent="0.3">
       <c r="F151" s="8" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="G151" s="8"/>
     </row>
-    <row r="152" spans="5:10" x14ac:dyDescent="0.3">
-      <c r="E152" s="8"/>
+    <row r="152" spans="5:11" x14ac:dyDescent="0.3">
       <c r="F152" s="8"/>
       <c r="G152" s="8" t="s">
         <v>380</v>
       </c>
       <c r="J152" s="6" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="153" spans="5:10" x14ac:dyDescent="0.3">
-      <c r="E153" s="8"/>
+        <v>543</v>
+      </c>
+    </row>
+    <row r="153" spans="5:11" x14ac:dyDescent="0.3">
       <c r="F153" s="8"/>
       <c r="G153" s="8" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="154" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="F154" s="8"/>
+      <c r="H154" s="8" t="s">
         <v>379</v>
       </c>
-      <c r="H153" s="6" t="s">
-        <v>549</v>
-      </c>
-      <c r="J153" s="6" t="s">
+      <c r="I154" s="6" t="s">
+        <v>546</v>
+      </c>
+      <c r="K154" s="6" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="155" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E155" s="8" t="s">
+        <v>378</v>
+      </c>
+      <c r="F155" s="8"/>
+      <c r="G155" s="8"/>
+    </row>
+    <row r="156" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E156" s="8"/>
+      <c r="F156" s="8" t="s">
+        <v>530</v>
+      </c>
+      <c r="G156" s="8"/>
+    </row>
+    <row r="157" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E157" s="8"/>
+      <c r="F157" s="8"/>
+      <c r="G157" s="8" t="s">
+        <v>380</v>
+      </c>
+      <c r="J157" s="6" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="158" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E158" s="8"/>
+      <c r="F158" s="8"/>
+      <c r="G158" s="8" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="159" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E159" s="8"/>
+      <c r="F159" s="8"/>
+      <c r="H159" s="8" t="s">
+        <v>789</v>
+      </c>
+      <c r="I159" s="6" t="s">
+        <v>547</v>
+      </c>
+      <c r="K159" s="6" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="161" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="E161" s="8" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="162" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="E162" s="6" t="s">
         <v>537</v>
       </c>
-    </row>
-    <row r="155" spans="5:10" x14ac:dyDescent="0.3">
-      <c r="E155" s="8" t="s">
+      <c r="F162" s="11" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="164" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="E164" s="8" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="156" spans="5:10" x14ac:dyDescent="0.3">
-      <c r="E156" s="6" t="s">
+    <row r="165" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="E165" s="6" t="s">
         <v>539</v>
       </c>
-    </row>
-    <row r="158" spans="5:10" x14ac:dyDescent="0.3">
-      <c r="E158" s="8" t="s">
+      <c r="F165" s="11"/>
+    </row>
+    <row r="166" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="E166" s="6" t="s">
         <v>540</v>
       </c>
-    </row>
-    <row r="159" spans="5:10" x14ac:dyDescent="0.3">
-      <c r="E159" s="6" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="160" spans="5:10" x14ac:dyDescent="0.3">
-      <c r="E160" s="6" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="162" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="E162" s="8" t="s">
+      <c r="F166" s="11" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="168" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="E168" s="8" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="163" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="E163" s="6" t="s">
-        <v>533</v>
-      </c>
-      <c r="F163" s="6" t="s">
+    <row r="169" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="E169" s="6" t="s">
+        <v>531</v>
+      </c>
+      <c r="F169" s="6" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="170" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B170" s="8" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="171" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B171" s="6" t="s">
+        <v>524</v>
+      </c>
+      <c r="C171" s="6" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="172" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B172" s="6" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="173" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B173" s="6" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="164" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B164" s="8" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="165" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B165" s="6" t="s">
-        <v>526</v>
-      </c>
-      <c r="C165" s="6" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="166" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B166" s="6" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="167" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B167" s="6" t="s">
+    <row r="174" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C174" s="8" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="175" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C175" s="6" t="s">
+        <v>586</v>
+      </c>
+      <c r="E175" s="11" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="176" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D176" s="8" t="s">
+        <v>384</v>
+      </c>
+      <c r="F176" s="6" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D177" s="6" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D178" s="6" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="168" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C168" s="8" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="169" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C169" s="6" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="170" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="D170" s="8" t="s">
-        <v>384</v>
-      </c>
-      <c r="F170" s="6" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="171" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="D171" s="6" t="s">
+      <c r="E178" s="11" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D179" s="8" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D180" s="6" t="s">
         <v>553</v>
       </c>
-    </row>
-    <row r="172" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="D172" s="6" t="s">
+      <c r="E180" s="11" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D181" s="6" t="s">
+        <v>583</v>
+      </c>
+      <c r="E181" s="11" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E182" s="8" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E183" s="6" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="173" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="D173" s="8" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="174" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="D174" s="6" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="175" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="D175" s="6" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="176" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="E176" s="8" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="E177" s="6" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="E178" s="6" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="F179" s="8" t="s">
-        <v>386</v>
-      </c>
-      <c r="G179" s="6" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A180" s="6" t="s">
-        <v>607</v>
-      </c>
-      <c r="F180" s="6" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A181" s="6">
-        <v>573</v>
-      </c>
-      <c r="F181" s="6" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A182" s="6" t="s">
-        <v>559</v>
-      </c>
-      <c r="E182" s="8" t="s">
-        <v>385</v>
-      </c>
-      <c r="F182" s="8"/>
-    </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A183" s="6">
-        <v>958</v>
-      </c>
-      <c r="E183" s="8"/>
-      <c r="F183" s="8" t="s">
-        <v>386</v>
-      </c>
-      <c r="G183" s="6" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A184" s="6" t="s">
-        <v>560</v>
-      </c>
-      <c r="E184" s="8" t="s">
-        <v>385</v>
-      </c>
-      <c r="F184" s="8"/>
-    </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A185" s="6">
-        <v>132</v>
-      </c>
-      <c r="E185" s="8"/>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E184" s="6" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F185" s="8" t="s">
         <v>386</v>
       </c>
       <c r="G185" s="6" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A186" s="6" t="s">
         <v>601</v>
       </c>
-    </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A186" s="6" t="s">
+      <c r="F186" s="6" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A187" s="6">
+        <v>573</v>
+      </c>
+      <c r="F187" s="6" t="s">
+        <v>556</v>
+      </c>
+      <c r="G187" s="11" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A188" s="6" t="s">
+        <v>557</v>
+      </c>
+      <c r="E188" s="8" t="s">
+        <v>385</v>
+      </c>
+      <c r="F188" s="8"/>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A189" s="6">
+        <v>958</v>
+      </c>
+      <c r="E189" s="8"/>
+      <c r="F189" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="G189" s="6" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A190" s="6" t="s">
+        <v>558</v>
+      </c>
+      <c r="E190" s="8" t="s">
+        <v>385</v>
+      </c>
+      <c r="F190" s="8"/>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A191" s="6">
+        <v>132</v>
+      </c>
+      <c r="E191" s="8"/>
+      <c r="F191" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="G191" s="6" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A192" s="6" t="s">
+        <v>559</v>
+      </c>
+      <c r="E192" s="8" t="s">
+        <v>385</v>
+      </c>
+      <c r="F192" s="8"/>
+    </row>
+    <row r="193" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A193" s="6">
+        <v>818</v>
+      </c>
+      <c r="E193" s="8"/>
+      <c r="F193" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="G193" s="6" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E194" s="8" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E195" s="6" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E196" s="6" t="s">
+        <v>567</v>
+      </c>
+      <c r="F196" s="11" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E197" s="6" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="198" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F198" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="I198" s="8"/>
+    </row>
+    <row r="199" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F199" s="6" t="s">
+        <v>524</v>
+      </c>
+      <c r="G199" s="6" t="s">
+        <v>602</v>
+      </c>
+      <c r="J199" s="8"/>
+    </row>
+    <row r="200" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F200" s="6" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="201" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F201" s="6" t="s">
         <v>561</v>
       </c>
-      <c r="E186" s="8" t="s">
-        <v>385</v>
-      </c>
-      <c r="F186" s="8"/>
-    </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A187" s="6">
+    </row>
+    <row r="202" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F202" s="6" t="s">
+        <v>570</v>
+      </c>
+      <c r="G202" s="11" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="203" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F203" s="6" t="s">
+        <v>568</v>
+      </c>
+      <c r="G203" s="11" t="s">
+        <v>810</v>
+      </c>
+      <c r="J203" s="8"/>
+    </row>
+    <row r="204" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F204" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="G204" s="11" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="205" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F205" s="6" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="206" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F206" s="6" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="207" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G207" s="8" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="208" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G208" s="6" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="209" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="G209" s="6" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="210" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="G210" s="6" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="211" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="G211" s="6" t="s">
+        <v>812</v>
+      </c>
+      <c r="I211" s="11" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="212" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="G212" s="6" t="s">
+        <v>564</v>
+      </c>
+      <c r="I212" s="11" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="213" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="G213" s="6" t="s">
+        <v>565</v>
+      </c>
+      <c r="I213" s="11" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="214" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="H214" s="8" t="s">
+        <v>388</v>
+      </c>
+      <c r="I214" s="6" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="215" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="H215" s="6" t="s">
+        <v>563</v>
+      </c>
+      <c r="J215" s="11" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="216" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="H216" s="6" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="217" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="H217" s="6" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="218" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="H218" s="8" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="219" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="H219" s="6" t="s">
+        <v>566</v>
+      </c>
+      <c r="I219" s="11" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="220" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="H220" s="6" t="s">
+        <v>821</v>
+      </c>
+      <c r="I220" s="11" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="221" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F221" s="8" t="s">
+        <v>390</v>
+      </c>
+      <c r="I221" s="6" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="222" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F222" s="6" t="s">
+        <v>563</v>
+      </c>
+      <c r="G222" s="11" t="s">
         <v>818</v>
       </c>
-      <c r="E187" s="8"/>
-      <c r="F187" s="8" t="s">
-        <v>386</v>
-      </c>
-      <c r="G187" s="6" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="E188" s="8" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="E189" s="6" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="E190" s="6" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="E191" s="6" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="F192" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="I192" s="8"/>
-    </row>
-    <row r="193" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F193" s="6" t="s">
-        <v>526</v>
-      </c>
-      <c r="G193" s="6" t="s">
-        <v>608</v>
-      </c>
-      <c r="J193" s="8"/>
-    </row>
-    <row r="194" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F194" s="6" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="195" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F195" s="6" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="196" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F196" s="6" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="197" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F197" s="6" t="s">
-        <v>570</v>
-      </c>
-      <c r="J197" s="8"/>
-    </row>
-    <row r="198" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F198" s="6" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="199" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F199" s="6" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="200" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F200" s="6" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="201" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="G201" s="8" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="202" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="G202" s="6" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="203" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="G203" s="6" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="204" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="G204" s="6" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="205" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="G205" s="6" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="206" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="G206" s="6" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="207" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="G207" s="6" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="208" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="H208" s="8" t="s">
-        <v>388</v>
-      </c>
-      <c r="I208" s="6" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="209" spans="6:9" x14ac:dyDescent="0.3">
-      <c r="H209" s="6" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="210" spans="6:9" x14ac:dyDescent="0.3">
-      <c r="H210" s="6" t="s">
+    </row>
+    <row r="223" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F223" s="6" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="211" spans="6:9" x14ac:dyDescent="0.3">
-      <c r="H211" s="6" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="212" spans="6:9" x14ac:dyDescent="0.3">
-      <c r="H212" s="8" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="213" spans="6:9" x14ac:dyDescent="0.3">
-      <c r="H213" s="6" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="214" spans="6:9" x14ac:dyDescent="0.3">
-      <c r="H214" s="6" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="215" spans="6:9" x14ac:dyDescent="0.3">
-      <c r="H215" s="6" t="s">
-        <v>526</v>
-      </c>
-      <c r="I215" s="6" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="216" spans="6:9" x14ac:dyDescent="0.3">
-      <c r="H216" s="6" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="217" spans="6:9" x14ac:dyDescent="0.3">
-      <c r="H217" s="6" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="218" spans="6:9" x14ac:dyDescent="0.3">
-      <c r="H218" s="6" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="219" spans="6:9" x14ac:dyDescent="0.3">
-      <c r="F219" s="8" t="s">
-        <v>390</v>
-      </c>
-      <c r="I219" s="6" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="220" spans="6:9" x14ac:dyDescent="0.3">
-      <c r="F220" s="6" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="221" spans="6:9" x14ac:dyDescent="0.3">
-      <c r="F221" s="6" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="222" spans="6:9" x14ac:dyDescent="0.3">
-      <c r="F222" s="6" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="223" spans="6:9" x14ac:dyDescent="0.3">
-      <c r="F223" s="6" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="224" spans="6:9" x14ac:dyDescent="0.3">
+    <row r="224" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F224" s="6" t="s">
-        <v>580</v>
+        <v>523</v>
       </c>
     </row>
     <row r="225" spans="5:9" x14ac:dyDescent="0.3">
       <c r="F225" s="6" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
     </row>
     <row r="226" spans="5:9" x14ac:dyDescent="0.3">
       <c r="F226" s="6" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
     </row>
     <row r="227" spans="5:9" x14ac:dyDescent="0.3">
       <c r="F227" s="6" t="s">
-        <v>585</v>
+        <v>573</v>
       </c>
     </row>
     <row r="228" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="F228" s="8" t="s">
-        <v>389</v>
-      </c>
-      <c r="I228" s="6" t="s">
-        <v>575</v>
+      <c r="F228" s="6" t="s">
+        <v>576</v>
       </c>
     </row>
     <row r="229" spans="5:9" x14ac:dyDescent="0.3">
       <c r="F229" s="6" t="s">
-        <v>565</v>
+        <v>579</v>
       </c>
     </row>
     <row r="230" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="F230" s="6" t="s">
-        <v>171</v>
+      <c r="F230" s="8" t="s">
+        <v>389</v>
+      </c>
+      <c r="I230" s="6" t="s">
+        <v>571</v>
       </c>
     </row>
     <row r="231" spans="5:9" x14ac:dyDescent="0.3">
       <c r="F231" s="6" t="s">
-        <v>525</v>
+        <v>563</v>
+      </c>
+      <c r="G231" s="11" t="s">
+        <v>818</v>
       </c>
     </row>
     <row r="232" spans="5:9" x14ac:dyDescent="0.3">
       <c r="F232" s="6" t="s">
-        <v>576</v>
+        <v>171</v>
       </c>
     </row>
     <row r="233" spans="5:9" x14ac:dyDescent="0.3">
       <c r="F233" s="6" t="s">
-        <v>580</v>
+        <v>523</v>
       </c>
     </row>
     <row r="234" spans="5:9" x14ac:dyDescent="0.3">
       <c r="F234" s="6" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
     </row>
     <row r="235" spans="5:9" x14ac:dyDescent="0.3">
       <c r="F235" s="6" t="s">
-        <v>582</v>
+        <v>575</v>
       </c>
     </row>
     <row r="236" spans="5:9" x14ac:dyDescent="0.3">
       <c r="F236" s="6" t="s">
-        <v>586</v>
+        <v>573</v>
       </c>
     </row>
     <row r="237" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E237" s="8" t="s">
-        <v>618</v>
+      <c r="F237" s="6" t="s">
+        <v>577</v>
       </c>
     </row>
     <row r="238" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E238" s="6" t="s">
-        <v>583</v>
+      <c r="F238" s="6" t="s">
+        <v>580</v>
       </c>
     </row>
     <row r="239" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E239" s="8" t="s">
-        <v>391</v>
+        <v>611</v>
       </c>
     </row>
     <row r="240" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E240" s="6" t="s">
-        <v>587</v>
+        <v>578</v>
+      </c>
+      <c r="F240" s="11" t="s">
+        <v>817</v>
       </c>
     </row>
     <row r="241" spans="4:7" x14ac:dyDescent="0.3">
       <c r="E241" s="8" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="242" spans="4:7" x14ac:dyDescent="0.3">
       <c r="E242" s="6" t="s">
-        <v>588</v>
+        <v>581</v>
       </c>
     </row>
     <row r="243" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D243" s="8" t="s">
-        <v>396</v>
+      <c r="E243" s="8" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="244" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D244" s="6" t="s">
-        <v>590</v>
+      <c r="E244" s="6" t="s">
+        <v>582</v>
       </c>
     </row>
     <row r="245" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D245" s="6" t="s">
-        <v>591</v>
+      <c r="D245" s="8" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="246" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="E246" s="8" t="s">
-        <v>394</v>
+      <c r="D246" s="6" t="s">
+        <v>584</v>
       </c>
     </row>
     <row r="247" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="E247" s="6" t="s">
-        <v>593</v>
-      </c>
-      <c r="F247" s="6" t="s">
-        <v>610</v>
+      <c r="D247" s="6" t="s">
+        <v>585</v>
       </c>
     </row>
     <row r="248" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="E248" s="6" t="s">
-        <v>594</v>
+      <c r="E248" s="8" t="s">
+        <v>393</v>
       </c>
     </row>
     <row r="249" spans="4:7" x14ac:dyDescent="0.3">
       <c r="E249" s="6" t="s">
-        <v>502</v>
+        <v>587</v>
+      </c>
+      <c r="F249" s="6" t="s">
+        <v>603</v>
       </c>
     </row>
     <row r="250" spans="4:7" x14ac:dyDescent="0.3">
       <c r="E250" s="6" t="s">
-        <v>616</v>
+        <v>588</v>
       </c>
     </row>
     <row r="251" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="F251" s="8" t="s">
-        <v>395</v>
-      </c>
-      <c r="G251" s="6" t="s">
-        <v>604</v>
+      <c r="E251" s="6" t="s">
+        <v>501</v>
       </c>
     </row>
     <row r="252" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="F252" s="6" t="s">
-        <v>595</v>
+      <c r="E252" s="6" t="s">
+        <v>609</v>
       </c>
     </row>
     <row r="253" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="F253" s="6" t="s">
-        <v>596</v>
+      <c r="F253" s="8" t="s">
+        <v>394</v>
+      </c>
+      <c r="G253" s="6" t="s">
+        <v>598</v>
       </c>
     </row>
     <row r="254" spans="4:7" x14ac:dyDescent="0.3">
       <c r="F254" s="6" t="s">
-        <v>597</v>
+        <v>589</v>
       </c>
     </row>
     <row r="255" spans="4:7" x14ac:dyDescent="0.3">
       <c r="F255" s="6" t="s">
-        <v>443</v>
+        <v>590</v>
+      </c>
+      <c r="G255" s="11" t="s">
+        <v>824</v>
       </c>
     </row>
     <row r="256" spans="4:7" x14ac:dyDescent="0.3">
       <c r="F256" s="6" t="s">
-        <v>617</v>
+        <v>591</v>
+      </c>
+      <c r="G256" s="11" t="s">
+        <v>823</v>
       </c>
     </row>
     <row r="257" spans="2:7" x14ac:dyDescent="0.3">
       <c r="F257" s="6" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
     </row>
     <row r="258" spans="2:7" x14ac:dyDescent="0.3">
       <c r="F258" s="6" t="s">
-        <v>565</v>
+        <v>610</v>
       </c>
     </row>
     <row r="259" spans="2:7" x14ac:dyDescent="0.3">
       <c r="F259" s="6" t="s">
-        <v>171</v>
+        <v>444</v>
       </c>
     </row>
     <row r="260" spans="2:7" x14ac:dyDescent="0.3">
       <c r="F260" s="6" t="s">
-        <v>525</v>
+        <v>563</v>
+      </c>
+      <c r="G260" s="11" t="s">
+        <v>819</v>
       </c>
     </row>
     <row r="261" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="E261" s="8" t="s">
+      <c r="F261" s="6" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="262" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F262" s="6" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="263" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="E263" s="8" t="s">
+        <v>393</v>
+      </c>
+      <c r="F263" s="8"/>
+      <c r="G263" s="6" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="264" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="E264" s="8"/>
+      <c r="F264" s="8" t="s">
         <v>394</v>
       </c>
-      <c r="F261" s="8"/>
-      <c r="G261" s="6" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="262" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="E262" s="8"/>
-      <c r="F262" s="8" t="s">
-        <v>395</v>
-      </c>
-      <c r="G262" s="6" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="263" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B263" s="8" t="s">
-        <v>397</v>
-      </c>
-      <c r="E263" s="8"/>
-      <c r="F263" s="8"/>
-    </row>
-    <row r="264" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="C264" s="8" t="s">
-        <v>398</v>
-      </c>
-      <c r="E264" s="8"/>
-      <c r="F264" s="8"/>
+      <c r="G264" s="6" t="s">
+        <v>599</v>
+      </c>
     </row>
     <row r="265" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="C265" s="6" t="s">
-        <v>623</v>
+      <c r="B265" s="8" t="s">
+        <v>396</v>
       </c>
       <c r="E265" s="8"/>
       <c r="F265" s="8"/>
     </row>
     <row r="266" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="C266" s="6" t="s">
-        <v>624</v>
+      <c r="C266" s="8" t="s">
+        <v>397</v>
       </c>
       <c r="E266" s="8"/>
       <c r="F266" s="8"/>
     </row>
     <row r="267" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="D267" s="8" t="s">
-        <v>436</v>
-      </c>
-      <c r="G267" s="6" t="s">
-        <v>642</v>
-      </c>
+      <c r="C267" s="6" t="s">
+        <v>616</v>
+      </c>
+      <c r="D267" s="11" t="s">
+        <v>825</v>
+      </c>
+      <c r="E267" s="8"/>
+      <c r="F267" s="8"/>
     </row>
     <row r="268" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="D268" s="6" t="s">
-        <v>625</v>
+      <c r="C268" s="6" t="s">
+        <v>617</v>
+      </c>
+      <c r="D268" s="11" t="s">
+        <v>826</v>
       </c>
       <c r="E268" s="8"/>
       <c r="F268" s="8"/>
     </row>
     <row r="269" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="D269" s="6" t="s">
-        <v>626</v>
-      </c>
-      <c r="E269" s="8"/>
-      <c r="F269" s="8"/>
+      <c r="D269" s="8" t="s">
+        <v>435</v>
+      </c>
+      <c r="G269" s="6" t="s">
+        <v>635</v>
+      </c>
     </row>
     <row r="270" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="D270" s="8" t="s">
-        <v>399</v>
+      <c r="D270" s="6" t="s">
+        <v>618</v>
       </c>
       <c r="E270" s="8"/>
       <c r="F270" s="8"/>
     </row>
     <row r="271" spans="2:7" x14ac:dyDescent="0.3">
       <c r="D271" s="6" t="s">
-        <v>443</v>
-      </c>
-      <c r="E271" s="8"/>
+        <v>619</v>
+      </c>
+      <c r="E271" s="11" t="s">
+        <v>827</v>
+      </c>
       <c r="F271" s="8"/>
     </row>
     <row r="272" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="D272" s="6" t="s">
-        <v>444</v>
+      <c r="D272" s="8" t="s">
+        <v>398</v>
       </c>
       <c r="E272" s="8"/>
       <c r="F272" s="8"/>
     </row>
-    <row r="273" spans="5:11" x14ac:dyDescent="0.3">
-      <c r="E273" s="8" t="s">
+    <row r="273" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D273" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="E273" s="11" t="s">
+        <v>828</v>
+      </c>
+      <c r="F273" s="8"/>
+    </row>
+    <row r="274" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D274" s="6" t="s">
+        <v>443</v>
+      </c>
+      <c r="E274" s="8"/>
+      <c r="F274" s="8"/>
+    </row>
+    <row r="275" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="E275" s="8" t="s">
+        <v>399</v>
+      </c>
+      <c r="F275" s="8"/>
+    </row>
+    <row r="276" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="E276" s="6" t="s">
+        <v>620</v>
+      </c>
+      <c r="F276" s="11" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="277" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="F277" s="11" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="278" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="F278" s="8" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="279" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="F279" s="6" t="s">
+        <v>830</v>
+      </c>
+      <c r="G279" s="6" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="280" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="F280" s="6" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="281" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="F281" s="6" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="282" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="F282" s="6" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="283" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="F283" s="6" t="s">
+        <v>833</v>
+      </c>
+      <c r="G283" s="11" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="284" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="F284" s="6" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="285" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="F285" s="8" t="s">
         <v>400</v>
       </c>
-      <c r="F273" s="8"/>
-    </row>
-    <row r="274" spans="5:11" x14ac:dyDescent="0.3">
-      <c r="E274" s="6" t="s">
+    </row>
+    <row r="286" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="F286" s="6" t="s">
+        <v>622</v>
+      </c>
+      <c r="H286" s="11" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="287" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="F287" s="6" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="288" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="F288" s="6" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="289" spans="7:11" x14ac:dyDescent="0.3">
+      <c r="G289" s="8" t="s">
+        <v>401</v>
+      </c>
+      <c r="K289" s="6" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="290" spans="7:11" x14ac:dyDescent="0.3">
+      <c r="G290" s="6" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="291" spans="7:11" x14ac:dyDescent="0.3">
+      <c r="G291" s="6" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="292" spans="7:11" x14ac:dyDescent="0.3">
+      <c r="G292" s="6" t="s">
         <v>627</v>
       </c>
-      <c r="F274" s="8"/>
-    </row>
-    <row r="275" spans="5:11" x14ac:dyDescent="0.3">
-      <c r="E275" s="8"/>
-      <c r="F275" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="G275" s="6" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="276" spans="5:11" x14ac:dyDescent="0.3">
-      <c r="F276" s="6" t="s">
+    </row>
+    <row r="293" spans="7:11" x14ac:dyDescent="0.3">
+      <c r="G293" s="6" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="277" spans="5:11" x14ac:dyDescent="0.3">
-      <c r="F277" s="8" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="278" spans="5:11" x14ac:dyDescent="0.3">
-      <c r="F278" s="6" t="s">
+    <row r="294" spans="7:11" x14ac:dyDescent="0.3">
+      <c r="G294" s="6" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="279" spans="5:11" x14ac:dyDescent="0.3">
-      <c r="F279" s="6" t="s">
+    <row r="295" spans="7:11" x14ac:dyDescent="0.3">
+      <c r="G295" s="8" t="s">
+        <v>402</v>
+      </c>
+      <c r="K295" s="6" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="296" spans="7:11" x14ac:dyDescent="0.3">
+      <c r="G296" s="6" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="280" spans="5:11" x14ac:dyDescent="0.3">
-      <c r="F280" s="6" t="s">
+    <row r="297" spans="7:11" x14ac:dyDescent="0.3">
+      <c r="G297" s="6" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="281" spans="5:11" x14ac:dyDescent="0.3">
-      <c r="G281" s="8" t="s">
-        <v>402</v>
-      </c>
-      <c r="K281" s="6" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="282" spans="5:11" x14ac:dyDescent="0.3">
-      <c r="G282" s="6" t="s">
+    <row r="298" spans="7:11" x14ac:dyDescent="0.3">
+      <c r="G298" s="6" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="283" spans="5:11" x14ac:dyDescent="0.3">
-      <c r="G283" s="6" t="s">
+    <row r="299" spans="7:11" x14ac:dyDescent="0.3">
+      <c r="G299" s="6" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="284" spans="5:11" x14ac:dyDescent="0.3">
-      <c r="G284" s="6" t="s">
+    <row r="300" spans="7:11" x14ac:dyDescent="0.3">
+      <c r="G300" s="6" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="301" spans="7:11" x14ac:dyDescent="0.3">
+      <c r="G301" s="8" t="s">
+        <v>403</v>
+      </c>
+      <c r="K301" s="6" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="302" spans="7:11" x14ac:dyDescent="0.3">
+      <c r="G302" s="6" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="303" spans="7:11" x14ac:dyDescent="0.3">
+      <c r="G303" s="6" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="304" spans="7:11" x14ac:dyDescent="0.3">
+      <c r="G304" s="6" t="s">
         <v>634</v>
       </c>
     </row>
-    <row r="285" spans="5:11" x14ac:dyDescent="0.3">
-      <c r="G285" s="6" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="286" spans="5:11" x14ac:dyDescent="0.3">
-      <c r="G286" s="6" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="287" spans="5:11" x14ac:dyDescent="0.3">
-      <c r="G287" s="8" t="s">
-        <v>403</v>
-      </c>
-      <c r="K287" s="6" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="288" spans="5:11" x14ac:dyDescent="0.3">
-      <c r="G288" s="6" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="289" spans="5:11" x14ac:dyDescent="0.3">
-      <c r="G289" s="6" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="290" spans="5:11" x14ac:dyDescent="0.3">
-      <c r="G290" s="6" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="291" spans="5:11" x14ac:dyDescent="0.3">
-      <c r="G291" s="6" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="292" spans="5:11" x14ac:dyDescent="0.3">
-      <c r="G292" s="6" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="293" spans="5:11" x14ac:dyDescent="0.3">
-      <c r="G293" s="8" t="s">
-        <v>404</v>
-      </c>
-      <c r="K293" s="6" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="294" spans="5:11" x14ac:dyDescent="0.3">
-      <c r="G294" s="6" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="295" spans="5:11" x14ac:dyDescent="0.3">
-      <c r="G295" s="6" t="s">
+    <row r="305" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="G305" s="6" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="296" spans="5:11" x14ac:dyDescent="0.3">
-      <c r="G296" s="6" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="297" spans="5:11" x14ac:dyDescent="0.3">
-      <c r="G297" s="6" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="298" spans="5:11" x14ac:dyDescent="0.3">
-      <c r="E298" s="8" t="s">
+    <row r="306" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E306" s="8" t="s">
+        <v>399</v>
+      </c>
+      <c r="F306" s="8"/>
+    </row>
+    <row r="307" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E307" s="8"/>
+      <c r="F307" s="8" t="s">
+        <v>834</v>
+      </c>
+      <c r="G307" s="6" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="308" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E308" s="8"/>
+      <c r="F308" s="8" t="s">
         <v>400</v>
       </c>
-      <c r="F298" s="8"/>
-    </row>
-    <row r="299" spans="5:11" x14ac:dyDescent="0.3">
-      <c r="E299" s="8"/>
-      <c r="F299" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="G299" s="6" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="300" spans="5:11" x14ac:dyDescent="0.3">
-      <c r="E300" s="8"/>
-      <c r="F300" s="8" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="301" spans="5:11" x14ac:dyDescent="0.3">
-      <c r="E301" s="8"/>
-      <c r="F301" s="8"/>
-      <c r="G301" s="8" t="s">
-        <v>402</v>
-      </c>
-      <c r="K301" s="6" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="302" spans="5:11" x14ac:dyDescent="0.3">
-      <c r="E302" s="8"/>
-      <c r="F302" s="8"/>
-      <c r="G302" s="8" t="s">
-        <v>403</v>
-      </c>
-      <c r="K302" s="6" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="303" spans="5:11" x14ac:dyDescent="0.3">
-      <c r="E303" s="8"/>
-      <c r="F303" s="8"/>
-      <c r="G303" s="8" t="s">
-        <v>404</v>
-      </c>
-      <c r="K303" s="6" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="304" spans="5:11" x14ac:dyDescent="0.3">
-      <c r="E304" s="8" t="s">
-        <v>400</v>
-      </c>
-      <c r="F304" s="8"/>
-    </row>
-    <row r="305" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="E305" s="8"/>
-      <c r="F305" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="G305" s="6" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="306" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="E306" s="8"/>
-      <c r="F306" s="8" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="307" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="E307" s="8"/>
-      <c r="F307" s="8"/>
-      <c r="G307" s="8" t="s">
-        <v>402</v>
-      </c>
-      <c r="K307" s="6" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="308" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="E308" s="8"/>
-      <c r="F308" s="8"/>
-      <c r="G308" s="8" t="s">
-        <v>403</v>
-      </c>
-      <c r="K308" s="6" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="309" spans="2:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="309" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E309" s="8"/>
       <c r="F309" s="8"/>
       <c r="G309" s="8" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="K309" s="6" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="310" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="E310" s="8" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="310" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E310" s="8"/>
+      <c r="F310" s="8"/>
+      <c r="G310" s="8" t="s">
+        <v>402</v>
+      </c>
+      <c r="K310" s="6" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="311" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E311" s="8"/>
+      <c r="F311" s="8"/>
+      <c r="G311" s="8" t="s">
+        <v>403</v>
+      </c>
+      <c r="K311" s="6" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="312" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E312" s="8" t="s">
+        <v>399</v>
+      </c>
+      <c r="F312" s="8"/>
+    </row>
+    <row r="313" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E313" s="8"/>
+      <c r="F313" s="8" t="s">
+        <v>834</v>
+      </c>
+      <c r="G313" s="6" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="314" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E314" s="8"/>
+      <c r="F314" s="8" t="s">
         <v>400</v>
       </c>
-      <c r="F310" s="8"/>
-    </row>
-    <row r="311" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="E311" s="8"/>
-      <c r="F311" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="G311" s="6" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="312" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="E312" s="8"/>
-      <c r="F312" s="8" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="313" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="E313" s="8"/>
-      <c r="F313" s="8"/>
-      <c r="G313" s="8" t="s">
-        <v>402</v>
-      </c>
-      <c r="K313" s="6" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="314" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="E314" s="8"/>
-      <c r="F314" s="8"/>
-      <c r="G314" s="8" t="s">
-        <v>403</v>
-      </c>
-      <c r="K314" s="6" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="315" spans="2:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="315" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E315" s="8"/>
       <c r="F315" s="8"/>
       <c r="G315" s="8" t="s">
+        <v>401</v>
+      </c>
+      <c r="K315" s="6" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="316" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E316" s="8"/>
+      <c r="F316" s="8"/>
+      <c r="G316" s="8" t="s">
+        <v>402</v>
+      </c>
+      <c r="K316" s="6" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="317" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E317" s="8"/>
+      <c r="F317" s="8"/>
+      <c r="G317" s="8" t="s">
+        <v>403</v>
+      </c>
+      <c r="K317" s="6" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="318" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E318" s="8" t="s">
+        <v>399</v>
+      </c>
+      <c r="F318" s="8"/>
+    </row>
+    <row r="319" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E319" s="8"/>
+      <c r="F319" s="8" t="s">
+        <v>834</v>
+      </c>
+      <c r="G319" s="6" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="320" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E320" s="8"/>
+      <c r="F320" s="8" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="321" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="E321" s="8"/>
+      <c r="F321" s="8"/>
+      <c r="G321" s="8" t="s">
+        <v>401</v>
+      </c>
+      <c r="K321" s="6" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="322" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="E322" s="8"/>
+      <c r="F322" s="8"/>
+      <c r="G322" s="8" t="s">
+        <v>402</v>
+      </c>
+      <c r="K322" s="6" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="323" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="E323" s="8"/>
+      <c r="F323" s="8"/>
+      <c r="G323" s="8" t="s">
+        <v>403</v>
+      </c>
+      <c r="K323" s="6" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="324" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B324" s="8" t="s">
         <v>404</v>
       </c>
-      <c r="K315" s="6" t="s">
+    </row>
+    <row r="325" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B325" s="6" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="326" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="C326" s="8" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="327" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="C327" s="6" t="s">
+        <v>649</v>
+      </c>
+      <c r="D327" s="11" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="328" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="C328" s="6" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="329" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="C329" s="6" t="s">
+        <v>714</v>
+      </c>
+      <c r="D329" s="11" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="330" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="D330" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="G330" s="6" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="331" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="D331" s="6" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="332" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="D332" s="6" t="s">
+        <v>651</v>
+      </c>
+      <c r="E332" s="11" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="333" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="D333" s="8" t="s">
+        <v>406</v>
+      </c>
+      <c r="G333" s="6" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="334" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="D334" s="6" t="s">
+        <v>652</v>
+      </c>
+      <c r="E334" s="11" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="335" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="D335" s="6" t="s">
+        <v>653</v>
+      </c>
+      <c r="E335" s="11" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="336" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="D336" s="6" t="s">
+        <v>654</v>
+      </c>
+      <c r="E336" s="11"/>
+    </row>
+    <row r="337" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D337" s="6" t="s">
+        <v>633</v>
+      </c>
+      <c r="E337" s="11"/>
+    </row>
+    <row r="338" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D338" s="6" t="s">
+        <v>655</v>
+      </c>
+      <c r="E338" s="11" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="339" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D339" s="8" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="340" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="E340" s="8" t="s">
+        <v>408</v>
+      </c>
+      <c r="H340" s="6" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="341" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="E341" s="6" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="342" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="E342" s="6" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="343" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="E343" s="6" t="s">
         <v>656</v>
       </c>
     </row>
-    <row r="316" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B316" s="8" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="317" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B317" s="6" t="s">
+    <row r="344" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="E344" s="6" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="345" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="E345" s="6" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="346" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="E346" s="6" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="347" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="E347" s="8" t="s">
+        <v>409</v>
+      </c>
+      <c r="H347" s="6" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="348" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="E348" s="6" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="349" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="E349" s="6" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="350" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="E350" s="6" t="s">
         <v>657</v>
       </c>
     </row>
-    <row r="318" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="C318" s="8" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="319" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="C319" s="6" t="s">
+    <row r="351" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="E351" s="6" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="352" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="E352" s="6" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="353" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E353" s="6" t="s">
         <v>658</v>
       </c>
     </row>
-    <row r="320" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="C320" s="6" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="321" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C321" s="6" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="322" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="D322" s="8" t="s">
-        <v>406</v>
-      </c>
-      <c r="G322" s="6" t="s">
+    <row r="354" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E354" s="6" t="s">
+        <v>662</v>
+      </c>
+      <c r="F354" s="11" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="355" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E355" s="6" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="356" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E356" s="6" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="357" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E357" s="6" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="359" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E359" s="8" t="s">
+        <v>408</v>
+      </c>
+      <c r="H359" s="6" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="360" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E360" s="8" t="s">
+        <v>409</v>
+      </c>
+      <c r="H360" s="6" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="361" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E361" s="8"/>
+    </row>
+    <row r="362" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E362" s="8" t="s">
+        <v>408</v>
+      </c>
+      <c r="H362" s="6" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="363" spans="5:9" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="E363" s="8" t="s">
+        <v>409</v>
+      </c>
+      <c r="H363" s="5" t="s">
         <v>708</v>
       </c>
     </row>
-    <row r="323" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="D323" s="6" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="324" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="D324" s="6" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="325" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="D325" s="8" t="s">
-        <v>407</v>
-      </c>
-      <c r="G325" s="6" t="s">
+    <row r="364" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E364" s="8"/>
+    </row>
+    <row r="365" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E365" s="8" t="s">
+        <v>408</v>
+      </c>
+      <c r="I365" s="6" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="366" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E366" s="8" t="s">
+        <v>410</v>
+      </c>
+      <c r="I366" s="6" t="s">
         <v>709</v>
-      </c>
-    </row>
-    <row r="326" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="D326" s="6" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="327" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="D327" s="6" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="328" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="D328" s="6" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="329" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="D329" s="6" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="330" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="D330" s="6" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="331" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="D331" s="8" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="332" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="E332" s="8" t="s">
-        <v>409</v>
-      </c>
-      <c r="H332" s="6" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="333" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="E333" s="6" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="334" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="E334" s="6" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="335" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="E335" s="6" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="336" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="E336" s="6" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="337" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="E337" s="6" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="338" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="E338" s="6" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="339" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="E339" s="8" t="s">
-        <v>410</v>
-      </c>
-      <c r="H339" s="6" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="340" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="E340" s="6" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="341" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="E341" s="6" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="342" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="E342" s="6" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="343" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="E343" s="6" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="344" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="E344" s="6" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="345" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="E345" s="6" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="346" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="E346" s="6" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="347" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="E347" s="6" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="348" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="E348" s="6" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="350" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="E350" s="8" t="s">
-        <v>409</v>
-      </c>
-      <c r="H350" s="6" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="351" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="E351" s="8" t="s">
-        <v>410</v>
-      </c>
-      <c r="H351" s="6" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="352" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="E352" s="8"/>
-    </row>
-    <row r="353" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E353" s="8" t="s">
-        <v>409</v>
-      </c>
-      <c r="H353" s="6" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="354" spans="5:9" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="E354" s="8" t="s">
-        <v>410</v>
-      </c>
-      <c r="H354" s="5" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="355" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E355" s="8"/>
-    </row>
-    <row r="356" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E356" s="8" t="s">
-        <v>409</v>
-      </c>
-      <c r="I356" s="6" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="357" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E357" s="8" t="s">
-        <v>411</v>
-      </c>
-      <c r="I357" s="6" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="358" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E358" s="6" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="359" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E359" s="6" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="360" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E360" s="6" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="361" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E361" s="6" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="362" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E362" s="6" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="363" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E363" s="6" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="364" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E364" s="6" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="365" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E365" s="6" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="366" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E366" s="6" t="s">
-        <v>671</v>
       </c>
     </row>
     <row r="367" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E367" s="6" t="s">
-        <v>672</v>
+        <v>665</v>
       </c>
     </row>
     <row r="368" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E368" s="6" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="369" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E369" s="6" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="370" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E370" s="6" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="371" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E371" s="6" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="372" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E372" s="6" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="373" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E373" s="6" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="374" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E374" s="6" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="375" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E375" s="6" t="s">
+        <v>662</v>
+      </c>
+      <c r="F375" s="11" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="376" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E376" s="6" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="377" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E377" s="6" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="378" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E378" s="6" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="380" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E380" s="8" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="381" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E381" s="6" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="382" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E382" s="6" t="s">
+        <v>444</v>
+      </c>
+      <c r="F382" s="11" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="383" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E383" s="6" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="384" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E384" s="6" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="385" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E385" s="6" t="s">
+        <v>668</v>
+      </c>
+      <c r="F385" s="11" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="386" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E386" s="6" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="387" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F387" s="8" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="388" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F388" s="6" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="389" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A389" s="8" t="s">
+        <v>692</v>
+      </c>
+      <c r="F389" s="8" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="390" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B390" s="8" t="s">
+        <v>681</v>
+      </c>
+      <c r="F390" s="6" t="s">
+        <v>665</v>
+      </c>
+      <c r="G390" s="11" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="391" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B391" s="6" t="s">
+        <v>683</v>
+      </c>
+      <c r="F391" s="6" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="392" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B392" s="6" t="s">
+        <v>684</v>
+      </c>
+      <c r="F392" s="6" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="393" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B393" s="6" t="s">
+        <v>685</v>
+      </c>
+      <c r="F393" s="6" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="394" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B394" s="6" t="s">
+        <v>686</v>
+      </c>
+      <c r="F394" s="6" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="395" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B395" s="6" t="s">
+        <v>687</v>
+      </c>
+      <c r="F395" s="6" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="396" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B396" s="6" t="s">
+        <v>689</v>
+      </c>
+      <c r="F396" s="6" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="397" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B397" s="6" t="s">
+        <v>688</v>
+      </c>
+      <c r="F397" s="8" t="s">
         <v>673</v>
       </c>
-    </row>
-    <row r="370" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="E370" s="8" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="371" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="E371" s="6" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="372" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="E372" s="6" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="373" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="E373" s="6" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="374" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="E374" s="6" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="375" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="E375" s="6" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="376" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="E376" s="6" t="s">
+      <c r="I397" s="6" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="398" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B398" s="6" t="s">
+        <v>690</v>
+      </c>
+      <c r="F398" s="6" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="399" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B399" s="6" t="s">
+        <v>691</v>
+      </c>
+      <c r="F399" s="6" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="400" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F400" s="6" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="401" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="F401" s="6" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="403" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B403" s="8" t="s">
+        <v>716</v>
+      </c>
+      <c r="E403" s="8" t="s">
+        <v>412</v>
+      </c>
+      <c r="I403" s="6" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="404" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B404" s="6" t="s">
+        <v>717</v>
+      </c>
+      <c r="E404" s="6" t="s">
+        <v>693</v>
+      </c>
+      <c r="F404" s="11" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="405" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="E405" s="6" t="s">
+        <v>694</v>
+      </c>
+      <c r="F405" s="11" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="406" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="E406" s="6" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="407" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="E407" s="6" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="408" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="E408" s="6" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="409" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="E409" s="6" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="410" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="E410" s="6" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="411" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="E411" s="6" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="412" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="E412" s="6" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="413" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B413" s="8" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="414" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B414" s="6" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="415" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C415" s="8" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="416" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C416" s="6" t="s">
         <v>720</v>
       </c>
-    </row>
-    <row r="377" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F377" s="8" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="378" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F378" s="6" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="379" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A379" s="8" t="s">
-        <v>701</v>
-      </c>
-      <c r="F379" s="8" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="380" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B380" s="8" t="s">
-        <v>690</v>
-      </c>
-      <c r="F380" s="6" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="381" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B381" s="6" t="s">
-        <v>692</v>
-      </c>
-      <c r="F381" s="6" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="382" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B382" s="6" t="s">
-        <v>693</v>
-      </c>
-      <c r="F382" s="6" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="383" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B383" s="6" t="s">
-        <v>694</v>
-      </c>
-      <c r="F383" s="6" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="384" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B384" s="6" t="s">
+      <c r="D416" s="11" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="417" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C417" s="6" t="s">
+        <v>721</v>
+      </c>
+      <c r="D417" s="11"/>
+    </row>
+    <row r="418" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C418" s="6" t="s">
+        <v>719</v>
+      </c>
+      <c r="D418" s="11" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="419" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="D419" s="8" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="420" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="D420" s="6" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="421" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="D421" s="6" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="422" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="D422" s="6" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="423" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="D423" s="6" t="s">
+        <v>723</v>
+      </c>
+      <c r="E423" s="11" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="424" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="E424" s="8" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="425" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="E425" s="6" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="426" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="F426" s="8" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="427" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="F427" s="6" t="s">
+        <v>724</v>
+      </c>
+      <c r="G427" s="11" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="428" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="G428" s="8" t="s">
+        <v>417</v>
+      </c>
+      <c r="H428" s="6" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="429" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="G429" s="6" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="430" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="G430" s="6" t="s">
+        <v>748</v>
+      </c>
+      <c r="H430" s="11" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="431" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="G431" s="6" t="s">
         <v>695</v>
       </c>
-      <c r="F384" s="6" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="385" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B385" s="6" t="s">
-        <v>696</v>
-      </c>
-      <c r="F385" s="6" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="386" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B386" s="6" t="s">
-        <v>698</v>
-      </c>
-      <c r="F386" s="6" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="387" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B387" s="6" t="s">
+    </row>
+    <row r="432" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="G432" s="6" t="s">
+        <v>726</v>
+      </c>
+      <c r="H432" s="11" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="433" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="G433" s="6" t="s">
         <v>697</v>
       </c>
-      <c r="F387" s="8" t="s">
-        <v>682</v>
-      </c>
-      <c r="I387" s="6" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="388" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B388" s="6" t="s">
-        <v>699</v>
-      </c>
-      <c r="F388" s="6" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="389" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B389" s="6" t="s">
-        <v>700</v>
-      </c>
-      <c r="F389" s="6" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="390" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="F390" s="6" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="391" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="F391" s="6" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="393" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B393" s="8" t="s">
+    </row>
+    <row r="434" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="G434" s="6" t="s">
         <v>725</v>
       </c>
-      <c r="E393" s="8" t="s">
-        <v>413</v>
-      </c>
-      <c r="I393" s="6" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="394" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B394" s="6" t="s">
+    </row>
+    <row r="435" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="F435" s="8" t="s">
+        <v>416</v>
+      </c>
+      <c r="G435" s="8"/>
+    </row>
+    <row r="436" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="F436" s="8"/>
+      <c r="G436" s="8" t="s">
+        <v>417</v>
+      </c>
+      <c r="H436" s="6" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="437" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="F437" s="8" t="s">
+        <v>416</v>
+      </c>
+      <c r="G437" s="8"/>
+    </row>
+    <row r="438" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="F438" s="8"/>
+      <c r="G438" s="8" t="s">
+        <v>417</v>
+      </c>
+      <c r="H438" s="6" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="439" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="F439" s="8" t="s">
+        <v>416</v>
+      </c>
+      <c r="G439" s="8"/>
+    </row>
+    <row r="440" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="F440" s="8"/>
+      <c r="G440" s="8" t="s">
+        <v>417</v>
+      </c>
+      <c r="H440" s="6" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="441" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="F441" s="8" t="s">
+        <v>416</v>
+      </c>
+      <c r="G441" s="8"/>
+    </row>
+    <row r="442" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="F442" s="8"/>
+      <c r="G442" s="8" t="s">
+        <v>417</v>
+      </c>
+      <c r="H442" s="6" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="443" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E443" s="8" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="444" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E444" s="6" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="445" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="F445" s="8" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="446" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="F446" s="6" t="s">
+        <v>728</v>
+      </c>
+      <c r="G446" s="11" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="447" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="G447" s="8" t="s">
+        <v>420</v>
+      </c>
+      <c r="H447" s="6" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="448" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="G448" s="8"/>
+      <c r="H448" s="11" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="449" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="F449" s="8" t="s">
+        <v>419</v>
+      </c>
+      <c r="G449" s="8"/>
+    </row>
+    <row r="450" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="F450" s="8"/>
+      <c r="G450" s="8" t="s">
+        <v>420</v>
+      </c>
+      <c r="H450" s="6" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="451" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="F451" s="8" t="s">
+        <v>419</v>
+      </c>
+      <c r="G451" s="8"/>
+    </row>
+    <row r="452" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="F452" s="8"/>
+      <c r="G452" s="8" t="s">
+        <v>420</v>
+      </c>
+      <c r="H452" s="6" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="453" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D453" s="8" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="454" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D454" s="6" t="s">
+        <v>729</v>
+      </c>
+      <c r="E454" s="11" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="455" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D455" s="6" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="456" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="E456" s="8" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="457" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="E457" s="6" t="s">
+        <v>629</v>
+      </c>
+      <c r="F457" s="11" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="458" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="F458" s="8" t="s">
+        <v>423</v>
+      </c>
+      <c r="G458" s="6" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="459" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="F459" s="6" t="s">
+        <v>731</v>
+      </c>
+      <c r="G459" s="11" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="460" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="F460" s="6" t="s">
         <v>726</v>
       </c>
-      <c r="E394" s="6" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="395" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="E395" s="6" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="396" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="E396" s="6" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="397" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="E397" s="6" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="398" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="E398" s="6" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="399" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="E399" s="6" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="400" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="E400" s="6" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="401" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="E401" s="6" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="402" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="E402" s="6" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="403" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B403" s="8" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="404" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B404" s="6" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="405" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C405" s="8" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="406" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C406" s="6" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="407" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C407" s="6" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="408" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C408" s="6" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="409" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="D409" s="8" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="410" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="D410" s="6" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="411" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="D411" s="6" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="412" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="D412" s="6" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="413" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="D413" s="6" t="s">
+      <c r="G460" s="11" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="461" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="F461" s="6" t="s">
+        <v>697</v>
+      </c>
+      <c r="G461" s="11"/>
+    </row>
+    <row r="462" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="F462" s="6" t="s">
+        <v>725</v>
+      </c>
+      <c r="G462" s="11"/>
+    </row>
+    <row r="463" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="F463" s="6" t="s">
         <v>732</v>
       </c>
-    </row>
-    <row r="414" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="E414" s="8" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="415" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="E415" s="6" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="416" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="F416" s="8" t="s">
+      <c r="G463" s="11" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="464" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="F464" s="6" t="s">
+        <v>524</v>
+      </c>
+      <c r="G464" s="6" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="465" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="F465" s="6" t="s">
+        <v>525</v>
+      </c>
+      <c r="G465" s="11" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="466" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="F466" s="6" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="467" spans="4:9" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="E467" s="8" t="s">
+        <v>422</v>
+      </c>
+      <c r="F467" s="8"/>
+      <c r="H467" s="6" t="s">
+        <v>749</v>
+      </c>
+      <c r="I467" s="5" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="468" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="E468" s="8"/>
+      <c r="F468" s="8" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="469" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D469" s="8" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="470" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D470" s="6" t="s">
+        <v>733</v>
+      </c>
+      <c r="E470" s="11" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="471" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D471" s="6" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="472" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D472" s="6" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="473" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D473" s="6" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="474" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D474" s="8"/>
+      <c r="E474" s="8" t="s">
+        <v>425</v>
+      </c>
+      <c r="I474" s="6" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="475" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D475" s="8"/>
+      <c r="E475" s="6" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="476" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D476" s="8"/>
+      <c r="E476" s="6" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="477" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D477" s="8"/>
+      <c r="E477" s="6" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="478" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D478" s="8"/>
+      <c r="E478" s="6" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="479" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D479" s="8"/>
+      <c r="E479" s="6" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="480" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D480" s="8"/>
+      <c r="F480" s="8" t="s">
+        <v>344</v>
+      </c>
+      <c r="G480" s="6" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="481" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D481" s="8"/>
+      <c r="F481" s="6" t="s">
+        <v>735</v>
+      </c>
+      <c r="G481" s="11" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="482" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D482" s="8"/>
+      <c r="E482" s="8" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="483" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D483" s="8"/>
+      <c r="E483" s="6" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="484" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D484" s="8"/>
+      <c r="F484" s="8" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="485" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D485" s="8"/>
+      <c r="F485" s="6" t="s">
+        <v>737</v>
+      </c>
+      <c r="G485" s="11" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="486" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D486" s="8"/>
+      <c r="G486" s="8" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="417" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F417" s="6" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="418" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="G418" s="8" t="s">
-        <v>418</v>
-      </c>
-      <c r="H418" s="6" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="419" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="G419" s="6" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="420" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="G420" s="6" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="421" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="G421" s="6" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="422" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="G422" s="6" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="423" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="G423" s="6" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="424" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="G424" s="6" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="425" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F425" s="8" t="s">
+      <c r="H486" s="6" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="487" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D487" s="8"/>
+      <c r="G487" s="6" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="488" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D488" s="8"/>
+      <c r="G488" s="6" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="489" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D489" s="8"/>
+      <c r="G489" s="6" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="490" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D490" s="8"/>
+      <c r="F490" s="8" t="s">
+        <v>427</v>
+      </c>
+      <c r="G490" s="8"/>
+    </row>
+    <row r="491" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D491" s="8"/>
+      <c r="F491" s="8"/>
+      <c r="G491" s="8" t="s">
         <v>417</v>
       </c>
-      <c r="G425" s="8"/>
-    </row>
-    <row r="426" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F426" s="8"/>
-      <c r="G426" s="8" t="s">
-        <v>418</v>
-      </c>
-      <c r="H426" s="6" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="427" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F427" s="8" t="s">
-        <v>417</v>
-      </c>
-      <c r="G427" s="8"/>
-    </row>
-    <row r="428" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F428" s="8"/>
-      <c r="G428" s="8" t="s">
-        <v>418</v>
-      </c>
-      <c r="H428" s="6" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="429" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F429" s="8" t="s">
-        <v>417</v>
-      </c>
-      <c r="G429" s="8"/>
-    </row>
-    <row r="430" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F430" s="8"/>
-      <c r="G430" s="8" t="s">
-        <v>418</v>
-      </c>
-      <c r="H430" s="6" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="431" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F431" s="8" t="s">
-        <v>417</v>
-      </c>
-      <c r="G431" s="8"/>
-    </row>
-    <row r="432" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F432" s="8"/>
-      <c r="G432" s="8" t="s">
-        <v>418</v>
-      </c>
-      <c r="H432" s="6" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="433" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="E433" s="8" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="434" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="E434" s="6" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="435" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="F435" s="8" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="436" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="F436" s="6" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="437" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="G437" s="8" t="s">
-        <v>421</v>
-      </c>
-      <c r="H437" s="6" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="438" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="F438" s="8" t="s">
-        <v>420</v>
-      </c>
-      <c r="G438" s="8"/>
-    </row>
-    <row r="439" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="F439" s="8"/>
-      <c r="G439" s="8" t="s">
-        <v>421</v>
-      </c>
-      <c r="H439" s="6" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="440" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="F440" s="8" t="s">
-        <v>420</v>
-      </c>
-      <c r="G440" s="8"/>
-    </row>
-    <row r="441" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="F441" s="8"/>
-      <c r="G441" s="8" t="s">
-        <v>421</v>
-      </c>
-      <c r="H441" s="6" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="442" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D442" s="8" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="443" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D443" s="6" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="444" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D444" s="6" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="445" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="E445" s="8" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="446" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="E446" s="6" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="447" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="F447" s="8" t="s">
-        <v>424</v>
-      </c>
-      <c r="G447" s="6" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="448" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="F448" s="6" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="449" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="F449" s="6" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="450" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="F450" s="6" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="451" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="F451" s="6" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="452" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="F452" s="6" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="453" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="F453" s="6" t="s">
-        <v>526</v>
-      </c>
-      <c r="G453" s="6" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="454" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="F454" s="6" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="455" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="F455" s="6" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="456" spans="4:9" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="E456" s="8" t="s">
-        <v>423</v>
-      </c>
-      <c r="F456" s="8"/>
-      <c r="H456" s="6" t="s">
-        <v>758</v>
-      </c>
-      <c r="I456" s="5" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="457" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="E457" s="8"/>
-      <c r="F457" s="8" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="458" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D458" s="8" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="459" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D459" s="6" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="460" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D460" s="6" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="461" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D461" s="6" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="462" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D462" s="6" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="463" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D463" s="8"/>
-      <c r="E463" s="8" t="s">
-        <v>426</v>
-      </c>
-      <c r="I463" s="6" t="s">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="464" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D464" s="8"/>
-      <c r="E464" s="6" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="465" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D465" s="8"/>
-      <c r="E465" s="6" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="466" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D466" s="8"/>
-      <c r="E466" s="6" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="467" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D467" s="8"/>
-      <c r="E467" s="6" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="468" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D468" s="8"/>
-      <c r="E468" s="6" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="469" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D469" s="8"/>
-      <c r="F469" s="8" t="s">
-        <v>344</v>
-      </c>
-      <c r="G469" s="6" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="470" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D470" s="8"/>
-      <c r="F470" s="6" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="471" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D471" s="8"/>
-      <c r="E471" s="8" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="472" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D472" s="8"/>
-      <c r="E472" s="6" t="s">
+      <c r="H491" s="6" t="s">
         <v>745</v>
       </c>
     </row>
-    <row r="473" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D473" s="8"/>
-      <c r="F473" s="8" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="474" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D474" s="8"/>
-      <c r="F474" s="6" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="475" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D475" s="8"/>
-      <c r="G475" s="8" t="s">
-        <v>418</v>
-      </c>
-      <c r="H475" s="6" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="476" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D476" s="8"/>
-      <c r="G476" s="6" t="s">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="477" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D477" s="8"/>
-      <c r="G477" s="6" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="478" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D478" s="8"/>
-      <c r="G478" s="6" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="479" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D479" s="8"/>
-      <c r="F479" s="8" t="s">
-        <v>428</v>
-      </c>
-      <c r="G479" s="8"/>
-    </row>
-    <row r="480" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D480" s="8"/>
-      <c r="F480" s="8"/>
-      <c r="G480" s="8" t="s">
-        <v>418</v>
-      </c>
-      <c r="H480" s="6" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="481" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D481" s="8"/>
-    </row>
-    <row r="482" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D482" s="8"/>
+    <row r="492" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D492" s="8"/>
+    </row>
+    <row r="493" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D493" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="E456:F457">
+  <conditionalFormatting sqref="E467:F468">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="H354" r:id="rId1"/>
-    <hyperlink ref="I456" r:id="rId2"/>
+    <hyperlink ref="H363" r:id="rId1"/>
+    <hyperlink ref="I467" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
